--- a/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_task" sheetId="4" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="115">
   <si>
     <t>任务集合</t>
   </si>
@@ -317,27 +317,45 @@
     <t>[{"k1":"KillMonster","update":"Add","target":10}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":1},{"cfgId":3,"num":1}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":10}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":20}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":11}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":30}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":12}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":40}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":13}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":50}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":14}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":60}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":15}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":70}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":16}]</t>
+  </si>
+  <si>
     <t>等级提升</t>
   </si>
   <si>
@@ -347,39 +365,75 @@
     <t>[{"k1":"Lv","update":"Replace","target":5}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":17}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":100}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":18}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":150}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":19}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":200}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":20}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":250}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":21}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":300}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":22}]</t>
+  </si>
+  <si>
     <t>[{"k1":"Lv","update":"Replace","target":10}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":23}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":500}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":24}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":800}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":25}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1100}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":26}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1400}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":27}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1700}]</t>
   </si>
   <si>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":28}]</t>
+  </si>
+  <si>
     <t>成就集合</t>
   </si>
   <si>
@@ -407,115 +461,115 @@
     <t>{"k1":"Lv","update":"Max","target":1}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":10}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":10}]</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":2}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":11}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":11}]</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":3}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":12}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":12}]</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":4}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":13}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":13}]</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":5}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":14}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":14}]</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":6}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":15}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":15}]</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":7}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":16}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":16}]</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":8}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":17}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":17}]</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":9}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":18}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":18}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":200}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":19}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":19}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":500}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":20}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":20}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":800}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":21}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":21}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":1100}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":22}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":22}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":1400}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":23}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":23}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":1700}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":24}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":24}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":2000}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":25}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":25}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":2300}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":26}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":26}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":2600}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":27}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":27}]</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":2900}</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":10},{"cfg":3,"num":28}]</t>
+    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":28}]</t>
   </si>
 </sst>
 </file>
@@ -687,12 +741,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1504,8 +1558,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1724,7 +1778,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1753,10 +1807,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1785,10 +1839,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1817,10 +1871,10 @@
         <v>100</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1849,10 +1903,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1881,10 +1935,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1901,10 +1955,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1913,10 +1967,10 @@
         <v>100</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1945,10 +1999,10 @@
         <v>100</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1977,10 +2031,10 @@
         <v>100</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2009,10 +2063,10 @@
         <v>100</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2041,10 +2095,10 @@
         <v>100</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2073,10 +2127,10 @@
         <v>100</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2093,10 +2147,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2105,10 +2159,10 @@
         <v>100</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2137,10 +2191,10 @@
         <v>100</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2169,10 +2223,10 @@
         <v>100</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2201,10 +2255,10 @@
         <v>100</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2233,10 +2287,10 @@
         <v>100</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2265,10 +2319,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2329,8 +2383,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2347,7 +2401,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2388,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2403,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>11</v>
@@ -2429,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
@@ -2440,13 +2494,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -2469,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2481,10 +2535,10 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2495,10 +2549,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2507,10 +2561,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2521,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2533,10 +2587,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2547,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2559,10 +2613,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2573,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2585,10 +2639,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2599,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2611,10 +2665,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2625,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2637,10 +2691,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2651,10 +2705,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2663,10 +2717,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2677,10 +2731,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2689,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2715,10 +2769,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2741,10 +2795,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2767,10 +2821,10 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2793,10 +2847,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2819,10 +2873,10 @@
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2845,10 +2899,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2871,10 +2925,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2897,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2923,10 +2977,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2949,10 +3003,10 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
@@ -317,43 +317,43 @@
     <t>[{"k1":"KillMonster","update":"Add","target":10}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":10}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":10}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":20}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":11}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":11}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":30}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":12}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":12}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":40}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":13}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":13}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":50}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":14}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":14}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":60}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":15}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":15}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":70}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":16}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":16}]</t>
   </si>
   <si>
     <t>等级提升</t>
@@ -365,73 +365,73 @@
     <t>[{"k1":"Lv","update":"Replace","target":5}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":17}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":17}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":100}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":18}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":18}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":150}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":19}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":19}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":200}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":20}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":20}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":250}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":21}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":21}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":300}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":22}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":22}]</t>
   </si>
   <si>
     <t>[{"k1":"Lv","update":"Replace","target":10}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":23}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":23}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":500}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":24}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":24}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":800}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":25}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":25}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1100}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":26}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":26}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1400}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":27}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":27}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1700}]</t>
   </si>
   <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":28}]</t>
+    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":28}]</t>
   </si>
   <si>
     <t>成就集合</t>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1571,7 +1571,8 @@
     <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="72.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="50.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="93.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>

--- a/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="156">
   <si>
     <t>任务集合</t>
   </si>
@@ -260,9 +260,15 @@
     <t>conditionList</t>
   </si>
   <si>
+    <t>acceptCost</t>
+  </si>
+  <si>
     <t>rewards</t>
   </si>
   <si>
+    <t>submitCost</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -302,9 +308,15 @@
     <t>任务条件</t>
   </si>
   <si>
+    <t>任务接取的时候需要扣除的道具</t>
+  </si>
+  <si>
     <t>任务奖励</t>
   </si>
   <si>
+    <t>任务提交的时候需要扣除的道具</t>
+  </si>
+  <si>
     <t>Main</t>
   </si>
   <si>
@@ -317,45 +329,84 @@
     <t>[{"k1":"KillMonster","update":"Add","target":10}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":1}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":10}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":20}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":2}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":11}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":2}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":30}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":3}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":12}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":3}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":40}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":4}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":13}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":4}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":50}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":5}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":14}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":5}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":60}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":6}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":15}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":6}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":70}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":7}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":16}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":7}]</t>
+  </si>
+  <si>
     <t>等级提升</t>
   </si>
   <si>
@@ -365,73 +416,145 @@
     <t>[{"k1":"Lv","update":"Replace","target":5}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":8}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":17}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":8}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":100}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":9}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":18}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":9}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":150}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":10}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":19}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":10}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":200}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":11}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":20}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":11}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":250}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":12}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":21}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":12}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":300}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":13}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":22}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":13}]</t>
+  </si>
+  <si>
     <t>[{"k1":"Lv","update":"Replace","target":10}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":14}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":23}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":14}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":500}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":15}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":24}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":15}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":800}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":16}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":25}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":16}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1100}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":17}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":26}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":17}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1400}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":18}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":27}]</t>
   </si>
   <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":18}]</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1700}]</t>
   </si>
   <si>
+    <t>[{"cfgId":1,"num":19}]</t>
+  </si>
+  <si>
     <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":28}]</t>
+  </si>
+  <si>
+    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":19}]</t>
   </si>
   <si>
     <t>成就集合</t>
@@ -1556,10 +1679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1572,11 +1695,13 @@
     <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="50.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="93.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="10" max="10" width="69.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="88.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="73" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1589,8 +1714,10 @@
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1621,8 +1748,14 @@
       <c r="J2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1653,77 +1786,95 @@
       <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1732,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1744,18 +1895,24 @@
         <v>100</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1764,10 +1921,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1776,18 +1933,24 @@
         <v>100</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1796,10 +1959,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1808,18 +1971,24 @@
         <v>100</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1828,10 +1997,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1840,18 +2009,24 @@
         <v>100</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1860,10 +2035,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1872,18 +2047,24 @@
         <v>100</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1892,10 +2073,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1904,18 +2085,24 @@
         <v>100</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1924,10 +2111,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1936,18 +2123,24 @@
         <v>100</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>57</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1956,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1968,18 +2161,24 @@
         <v>100</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -1988,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2000,18 +2199,24 @@
         <v>100</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>67</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -2020,10 +2225,10 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2032,18 +2237,24 @@
         <v>100</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -2052,10 +2263,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2064,18 +2275,24 @@
         <v>100</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -2084,10 +2301,10 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2096,18 +2313,24 @@
         <v>100</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -2116,10 +2339,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2128,18 +2351,24 @@
         <v>100</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>83</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -2148,10 +2377,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2160,18 +2389,24 @@
         <v>100</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>87</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -2180,10 +2415,10 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2192,18 +2427,24 @@
         <v>100</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -2212,10 +2453,10 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2224,18 +2465,24 @@
         <v>100</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -2244,10 +2491,10 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2256,18 +2503,24 @@
         <v>100</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>17</v>
@@ -2276,10 +2529,10 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2288,18 +2541,24 @@
         <v>100</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -2308,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2320,10 +2579,16 @@
         <v>100</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2402,7 +2667,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2443,7 +2708,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2458,62 +2723,62 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2524,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2536,10 +2801,10 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2550,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2562,10 +2827,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2576,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2588,10 +2853,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2602,10 +2867,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2614,10 +2879,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2628,10 +2893,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2640,10 +2905,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2654,10 +2919,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2666,10 +2931,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2680,10 +2945,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2692,10 +2957,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2706,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2718,10 +2983,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2732,10 +2997,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2744,10 +3009,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2758,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2770,10 +3035,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2784,10 +3049,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2796,10 +3061,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2810,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2822,10 +3087,10 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2836,10 +3101,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2848,10 +3113,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2862,10 +3127,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2874,10 +3139,10 @@
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2888,10 +3153,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2900,10 +3165,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2914,10 +3179,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2926,10 +3191,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2940,10 +3205,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2952,10 +3217,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2966,10 +3231,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2978,10 +3243,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2992,10 +3257,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3004,10 +3269,10 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="q_task" sheetId="4" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="157">
   <si>
     <t>任务集合</t>
   </si>
@@ -569,6 +569,9 @@
     <t>wxdgaming.boot2.core.lang.condition.Condition</t>
   </si>
   <si>
+    <t>wxdgaming.boot2.core.lang.ConfigString</t>
+  </si>
+  <si>
     <t>成就类型</t>
   </si>
   <si>
@@ -584,115 +587,115 @@
     <t>{"k1":"Lv","update":"Max","target":1}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":10}]</t>
+    <t>1|10,3|10,5|10</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":2}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":11}]</t>
+    <t>1|10,3|10,5|11</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":3}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":12}]</t>
+    <t>1|10,3|10,5|12</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":4}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":13}]</t>
+    <t>1|10,3|10,5|13</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":5}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":14}]</t>
+    <t>1|10,3|10,5|14</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":6}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":15}]</t>
+    <t>1|10,3|10,5|15</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":7}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":16}]</t>
+    <t>1|10,3|10,5|16</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":8}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":17}]</t>
+    <t>1|10,3|10,5|17</t>
   </si>
   <si>
     <t>{"k1":"Lv","update":"Max","target":9}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":18}]</t>
+    <t>1|10,3|10,5|18</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":200}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":19}]</t>
+    <t>1|10,3|10,5|19</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":500}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":20}]</t>
+    <t>1|10,3|10,5|20</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":800}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":21}]</t>
+    <t>1|10,3|10,5|21</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":1100}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":22}]</t>
+    <t>1|10,3|10,5|22</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":1400}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":23}]</t>
+    <t>1|10,3|10,5|23</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":1700}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":24}]</t>
+    <t>1|10,3|10,5|24</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":2000}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":25}]</t>
+    <t>1|10,3|10,5|25</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":2300}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":26}]</t>
+    <t>1|10,3|10,5|26</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":2600}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":27}]</t>
+    <t>1|10,3|10,5|27</t>
   </si>
   <si>
     <t>{"k1":"KillMonster","update":"Add","target":2900}</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":5,"num":28}]</t>
+    <t>1|10,3|10,5|28</t>
   </si>
 </sst>
 </file>
@@ -864,12 +867,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1681,7 +1684,7 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -2649,8 +2652,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2752,7 +2755,7 @@
         <v>113</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2760,13 +2763,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>25</v>
@@ -2789,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -2801,10 +2804,10 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2815,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -2827,10 +2830,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2841,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -2853,10 +2856,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2867,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -2879,10 +2882,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2893,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -2905,10 +2908,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2919,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -2931,10 +2934,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2945,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -2957,10 +2960,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2971,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -2983,10 +2986,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2997,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -3009,10 +3012,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3035,10 +3038,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3061,10 +3064,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3087,10 +3090,10 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3113,10 +3116,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3139,10 +3142,10 @@
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3165,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3191,10 +3194,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3217,10 +3220,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3243,10 +3246,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3269,10 +3272,10 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_task" sheetId="4" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="118">
   <si>
     <t>任务集合</t>
   </si>
@@ -281,7 +281,7 @@
     <t>List&lt;wxdgaming.boot2.core.lang.condition.Condition&gt;</t>
   </si>
   <si>
-    <t>List&lt;wxdgaming.game.bean.goods.ItemCfg&gt;</t>
+    <t>wxdgaming.boot2.core.lang.ConfigString</t>
   </si>
   <si>
     <t>主键id</t>
@@ -329,82 +329,61 @@
     <t>[{"k1":"KillMonster","update":"Add","target":10}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":1}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":10}]</t>
+    <t>1|10,3|10,5|10</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":20}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":2}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":11}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":2}]</t>
+    <t>1|1</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|11</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":30}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":3}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":12}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":3}]</t>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|12</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":40}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":4}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":13}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":4}]</t>
+    <t>1|3</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|13</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":50}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":5}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":14}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":5}]</t>
+    <t>1|4</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|14</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":60}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":6}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":15}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":6}]</t>
+    <t>1|5</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|15</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":70}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":7}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":16}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":7}]</t>
+    <t>1|6</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|16</t>
   </si>
   <si>
     <t>等级提升</t>
@@ -416,145 +395,109 @@
     <t>[{"k1":"Lv","update":"Replace","target":5}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":8}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":17}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":8}]</t>
+    <t>1|7</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|17</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":100}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":9}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":18}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":9}]</t>
+    <t>1|8</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|18</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":150}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":10}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":19}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":10}]</t>
+    <t>1|9</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|19</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":200}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":11}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":20}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":11}]</t>
+    <t>1|10</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|20</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":250}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":12}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":21}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":12}]</t>
+    <t>1|11</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|21</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":300}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":13}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":22}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":13}]</t>
+    <t>1|12</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|22</t>
   </si>
   <si>
     <t>[{"k1":"Lv","update":"Replace","target":10}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":14}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":23}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":14}]</t>
+    <t>1|13</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|23</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":500}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":15}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":24}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":15}]</t>
+    <t>1|14</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|24</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":800}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":16}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":25}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":16}]</t>
+    <t>1|15</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|25</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1100}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":17}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":26}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":17}]</t>
+    <t>1|16</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|26</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1400}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":18}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":27}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":18}]</t>
+    <t>1|17</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|27</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1700}]</t>
   </si>
   <si>
-    <t>[{"cfgId":1,"num":19}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":10003,"num":10},{"cfgId":1,"num":10},{"cfgId":3,"num":10},{"cfgId":100001,"num":50},{"cfgId":5,"num":28}]</t>
-  </si>
-  <si>
-    <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":19}]</t>
+    <t>1|18</t>
+  </si>
+  <si>
+    <t>1|10,3|10,5|28</t>
   </si>
   <si>
     <t>成就集合</t>
@@ -569,9 +512,6 @@
     <t>wxdgaming.boot2.core.lang.condition.Condition</t>
   </si>
   <si>
-    <t>wxdgaming.boot2.core.lang.ConfigString</t>
-  </si>
-  <si>
     <t>成就类型</t>
   </si>
   <si>
@@ -587,115 +527,58 @@
     <t>{"k1":"Lv","update":"Max","target":1}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|10</t>
-  </si>
-  <si>
     <t>{"k1":"Lv","update":"Max","target":2}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|11</t>
-  </si>
-  <si>
     <t>{"k1":"Lv","update":"Max","target":3}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|12</t>
-  </si>
-  <si>
     <t>{"k1":"Lv","update":"Max","target":4}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|13</t>
-  </si>
-  <si>
     <t>{"k1":"Lv","update":"Max","target":5}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|14</t>
-  </si>
-  <si>
     <t>{"k1":"Lv","update":"Max","target":6}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|15</t>
-  </si>
-  <si>
     <t>{"k1":"Lv","update":"Max","target":7}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|16</t>
-  </si>
-  <si>
     <t>{"k1":"Lv","update":"Max","target":8}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|17</t>
-  </si>
-  <si>
     <t>{"k1":"Lv","update":"Max","target":9}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|18</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":200}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|19</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":500}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|20</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":800}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|21</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":1100}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|22</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":1400}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|23</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":1700}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|24</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":2000}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|25</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":2300}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|26</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":2600}</t>
   </si>
   <si>
-    <t>1|10,3|10,5|27</t>
-  </si>
-  <si>
     <t>{"k1":"KillMonster","update":"Add","target":2900}</t>
-  </si>
-  <si>
-    <t>1|10,3|10,5|28</t>
   </si>
 </sst>
 </file>
@@ -1684,8 +1567,8 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1699,8 +1582,8 @@
     <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="50.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="69.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="88.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="73" style="2" customWidth="1"/>
+    <col min="11" max="11" width="37.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="45.375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1900,15 +1783,11 @@
       <c r="I6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
@@ -1936,16 +1815,16 @@
         <v>100</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1974,16 +1853,16 @@
         <v>100</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2012,16 +1891,16 @@
         <v>100</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2050,16 +1929,16 @@
         <v>100</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2088,16 +1967,16 @@
         <v>100</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2126,16 +2005,16 @@
         <v>100</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2152,10 +2031,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2164,16 +2043,16 @@
         <v>100</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2202,16 +2081,16 @@
         <v>100</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2240,16 +2119,16 @@
         <v>100</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2278,16 +2157,16 @@
         <v>100</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2316,16 +2195,16 @@
         <v>100</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2354,16 +2233,16 @@
         <v>100</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2380,10 +2259,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2392,16 +2271,16 @@
         <v>100</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2430,16 +2309,16 @@
         <v>100</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2468,16 +2347,16 @@
         <v>100</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2506,16 +2385,16 @@
         <v>100</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2544,16 +2423,16 @@
         <v>100</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2582,16 +2461,16 @@
         <v>100</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2652,8 +2531,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2670,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2711,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2726,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>12</v>
@@ -2752,10 +2631,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2763,13 +2642,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>25</v>
@@ -2792,10 +2671,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2804,10 +2683,10 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2818,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2830,10 +2709,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2844,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2856,10 +2735,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2870,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2882,10 +2761,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2896,10 +2775,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2908,10 +2787,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2922,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2934,10 +2813,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2948,10 +2827,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2960,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2974,10 +2853,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2986,10 +2865,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3000,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3012,10 +2891,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3038,10 +2917,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3064,10 +2943,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3090,10 +2969,10 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3116,10 +2995,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3142,10 +3021,10 @@
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3168,10 +3047,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3194,10 +3073,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3220,10 +3099,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3246,10 +3125,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3272,10 +3151,10 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="139">
   <si>
     <t>任务集合</t>
   </si>
@@ -257,6 +257,9 @@
     <t>max_lv</t>
   </si>
   <si>
+    <t>validation</t>
+  </si>
+  <si>
     <t>conditionList</t>
   </si>
   <si>
@@ -278,12 +281,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>wxdgaming.boot2.core.lang.ConfigString</t>
+  </si>
+  <si>
     <t>List&lt;wxdgaming.boot2.core.lang.condition.Condition&gt;</t>
   </si>
   <si>
-    <t>wxdgaming.boot2.core.lang.ConfigString</t>
-  </si>
-  <si>
     <t>主键id</t>
   </si>
   <si>
@@ -305,6 +308,9 @@
     <t>等级</t>
   </si>
   <si>
+    <t>限制条件</t>
+  </si>
+  <si>
     <t>任务条件</t>
   </si>
   <si>
@@ -326,12 +332,18 @@
     <t>击杀 {} 只怪物</t>
   </si>
   <si>
+    <t>1|1|100</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":10}]</t>
   </si>
   <si>
     <t>1|10,3|10,5|10</t>
   </si>
   <si>
+    <t>1|1|101</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":20}]</t>
   </si>
   <si>
@@ -341,6 +353,9 @@
     <t>1|10,3|10,5|11</t>
   </si>
   <si>
+    <t>1|1|102</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":30}]</t>
   </si>
   <si>
@@ -350,6 +365,9 @@
     <t>1|10,3|10,5|12</t>
   </si>
   <si>
+    <t>1|1|103</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":40}]</t>
   </si>
   <si>
@@ -359,6 +377,9 @@
     <t>1|10,3|10,5|13</t>
   </si>
   <si>
+    <t>1|1|104</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":50}]</t>
   </si>
   <si>
@@ -368,6 +389,9 @@
     <t>1|10,3|10,5|14</t>
   </si>
   <si>
+    <t>1|1|105</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":60}]</t>
   </si>
   <si>
@@ -377,6 +401,9 @@
     <t>1|10,3|10,5|15</t>
   </si>
   <si>
+    <t>1|1|106</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":70}]</t>
   </si>
   <si>
@@ -392,6 +419,9 @@
     <t>等级提升至 {} 级</t>
   </si>
   <si>
+    <t>1|1|107</t>
+  </si>
+  <si>
     <t>[{"k1":"Lv","update":"Replace","target":5}]</t>
   </si>
   <si>
@@ -401,6 +431,9 @@
     <t>1|10,3|10,5|17</t>
   </si>
   <si>
+    <t>1|1|108</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":100}]</t>
   </si>
   <si>
@@ -410,6 +443,9 @@
     <t>1|10,3|10,5|18</t>
   </si>
   <si>
+    <t>1|1|109</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":150}]</t>
   </si>
   <si>
@@ -419,6 +455,9 @@
     <t>1|10,3|10,5|19</t>
   </si>
   <si>
+    <t>1|1|110</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":200}]</t>
   </si>
   <si>
@@ -428,6 +467,9 @@
     <t>1|10,3|10,5|20</t>
   </si>
   <si>
+    <t>1|1|111</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":250}]</t>
   </si>
   <si>
@@ -437,6 +479,9 @@
     <t>1|10,3|10,5|21</t>
   </si>
   <si>
+    <t>1|1|112</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":300}]</t>
   </si>
   <si>
@@ -446,6 +491,9 @@
     <t>1|10,3|10,5|22</t>
   </si>
   <si>
+    <t>1|1|113</t>
+  </si>
+  <si>
     <t>[{"k1":"Lv","update":"Replace","target":10}]</t>
   </si>
   <si>
@@ -455,6 +503,9 @@
     <t>1|10,3|10,5|23</t>
   </si>
   <si>
+    <t>1|1|114</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":500}]</t>
   </si>
   <si>
@@ -464,6 +515,9 @@
     <t>1|10,3|10,5|24</t>
   </si>
   <si>
+    <t>1|1|115</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":800}]</t>
   </si>
   <si>
@@ -473,6 +527,9 @@
     <t>1|10,3|10,5|25</t>
   </si>
   <si>
+    <t>1|1|116</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1100}]</t>
   </si>
   <si>
@@ -482,6 +539,9 @@
     <t>1|10,3|10,5|26</t>
   </si>
   <si>
+    <t>1|1|117</t>
+  </si>
+  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1400}]</t>
   </si>
   <si>
@@ -489,6 +549,9 @@
   </si>
   <si>
     <t>1|10,3|10,5|27</t>
+  </si>
+  <si>
+    <t>1|1|118</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1700}]</t>
@@ -1565,10 +1628,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1580,14 +1643,15 @@
     <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="69.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="37.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="45.375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="69.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="37.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="45.375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1598,12 +1662,13 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1640,8 +1705,11 @@
       <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1666,7 +1734,7 @@
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1678,37 +1746,40 @@
       <c r="L3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>18</v>
@@ -1716,51 +1787,57 @@
       <c r="L4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1769,10 +1846,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1780,21 +1857,24 @@
       <c r="H6">
         <v>100</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1803,10 +1883,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1814,25 +1894,28 @@
       <c r="H7">
         <v>100</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>35</v>
+      <c r="I7" t="s">
+        <v>38</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>41</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1841,10 +1924,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1852,25 +1935,28 @@
       <c r="H8">
         <v>100</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>38</v>
+      <c r="I8" t="s">
+        <v>42</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1879,10 +1965,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1890,25 +1976,28 @@
       <c r="H9">
         <v>100</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>41</v>
+      <c r="I9" t="s">
+        <v>46</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>49</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1917,10 +2006,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1928,25 +2017,28 @@
       <c r="H10">
         <v>100</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>44</v>
+      <c r="I10" t="s">
+        <v>50</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>53</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1955,10 +2047,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1966,25 +2058,28 @@
       <c r="H11">
         <v>100</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>47</v>
+      <c r="I11" t="s">
+        <v>54</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>57</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1993,10 +2088,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2004,25 +2099,28 @@
       <c r="H12">
         <v>100</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>50</v>
+      <c r="I12" t="s">
+        <v>58</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>61</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -2031,10 +2129,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2042,25 +2140,28 @@
       <c r="H13">
         <v>100</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>55</v>
+      <c r="I13" t="s">
+        <v>64</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>67</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -2069,10 +2170,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2080,25 +2181,28 @@
       <c r="H14">
         <v>100</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>58</v>
+      <c r="I14" t="s">
+        <v>68</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>71</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -2107,10 +2211,10 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2118,25 +2222,28 @@
       <c r="H15">
         <v>100</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>61</v>
+      <c r="I15" t="s">
+        <v>72</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>75</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -2145,10 +2252,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2156,25 +2263,28 @@
       <c r="H16">
         <v>100</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>64</v>
+      <c r="I16" t="s">
+        <v>76</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>79</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -2183,10 +2293,10 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2194,25 +2304,28 @@
       <c r="H17">
         <v>100</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>67</v>
+      <c r="I17" t="s">
+        <v>80</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>83</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -2221,10 +2334,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2232,25 +2345,28 @@
       <c r="H18">
         <v>100</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>70</v>
+      <c r="I18" t="s">
+        <v>84</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>87</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -2259,10 +2375,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2270,25 +2386,28 @@
       <c r="H19">
         <v>100</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>73</v>
+      <c r="I19" t="s">
+        <v>88</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>91</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -2297,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2308,25 +2427,28 @@
       <c r="H20">
         <v>100</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>76</v>
+      <c r="I20" t="s">
+        <v>92</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>95</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -2335,10 +2457,10 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2346,25 +2468,28 @@
       <c r="H21">
         <v>100</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>79</v>
+      <c r="I21" t="s">
+        <v>96</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -2373,10 +2498,10 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2384,25 +2509,28 @@
       <c r="H22">
         <v>100</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>82</v>
+      <c r="I22" t="s">
+        <v>100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>103</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>17</v>
@@ -2411,10 +2539,10 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2422,25 +2550,28 @@
       <c r="H23">
         <v>100</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>85</v>
+      <c r="I23" t="s">
+        <v>104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>107</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -2449,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2460,17 +2591,20 @@
       <c r="H24">
         <v>100</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>88</v>
+      <c r="I24" t="s">
+        <v>108</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2549,7 +2683,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2590,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2605,33 +2739,33 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -2639,28 +2773,28 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2671,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2683,10 +2817,10 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2697,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2709,10 +2843,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2723,10 +2857,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2735,10 +2869,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2749,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2761,10 +2895,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2775,10 +2909,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2787,10 +2921,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2801,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2813,10 +2947,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2827,10 +2961,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2839,10 +2973,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2853,10 +2987,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2865,10 +2999,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2879,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2891,10 +3025,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2905,10 +3039,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2917,10 +3051,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2931,10 +3065,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2943,10 +3077,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2957,10 +3091,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2969,10 +3103,10 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2983,10 +3117,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2995,10 +3129,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3009,10 +3143,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3021,10 +3155,10 @@
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3035,10 +3169,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3047,10 +3181,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3061,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3073,10 +3207,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3087,10 +3221,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3099,10 +3233,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3113,10 +3247,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3125,10 +3259,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3139,10 +3273,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3151,10 +3285,10 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/任务成就.xlsx
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
   <si>
     <t>任务集合</t>
   </si>
@@ -332,7 +332,7 @@
     <t>击杀 {} 只怪物</t>
   </si>
   <si>
-    <t>1|1|100</t>
+    <t>Level|gte|1;Level|lte|999</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":10}]</t>
@@ -341,9 +341,6 @@
     <t>1|10,3|10,5|10</t>
   </si>
   <si>
-    <t>1|1|101</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":20}]</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t>1|10,3|10,5|11</t>
   </si>
   <si>
-    <t>1|1|102</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":30}]</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
     <t>1|10,3|10,5|12</t>
   </si>
   <si>
-    <t>1|1|103</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":40}]</t>
   </si>
   <si>
@@ -377,9 +368,6 @@
     <t>1|10,3|10,5|13</t>
   </si>
   <si>
-    <t>1|1|104</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":50}]</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
     <t>1|10,3|10,5|14</t>
   </si>
   <si>
-    <t>1|1|105</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":60}]</t>
   </si>
   <si>
@@ -401,9 +386,6 @@
     <t>1|10,3|10,5|15</t>
   </si>
   <si>
-    <t>1|1|106</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":70}]</t>
   </si>
   <si>
@@ -419,9 +401,6 @@
     <t>等级提升至 {} 级</t>
   </si>
   <si>
-    <t>1|1|107</t>
-  </si>
-  <si>
     <t>[{"k1":"Lv","update":"Replace","target":5}]</t>
   </si>
   <si>
@@ -431,9 +410,6 @@
     <t>1|10,3|10,5|17</t>
   </si>
   <si>
-    <t>1|1|108</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":100}]</t>
   </si>
   <si>
@@ -443,9 +419,6 @@
     <t>1|10,3|10,5|18</t>
   </si>
   <si>
-    <t>1|1|109</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":150}]</t>
   </si>
   <si>
@@ -455,9 +428,6 @@
     <t>1|10,3|10,5|19</t>
   </si>
   <si>
-    <t>1|1|110</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":200}]</t>
   </si>
   <si>
@@ -467,9 +437,6 @@
     <t>1|10,3|10,5|20</t>
   </si>
   <si>
-    <t>1|1|111</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":250}]</t>
   </si>
   <si>
@@ -479,9 +446,6 @@
     <t>1|10,3|10,5|21</t>
   </si>
   <si>
-    <t>1|1|112</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":300}]</t>
   </si>
   <si>
@@ -491,9 +455,6 @@
     <t>1|10,3|10,5|22</t>
   </si>
   <si>
-    <t>1|1|113</t>
-  </si>
-  <si>
     <t>[{"k1":"Lv","update":"Replace","target":10}]</t>
   </si>
   <si>
@@ -503,9 +464,6 @@
     <t>1|10,3|10,5|23</t>
   </si>
   <si>
-    <t>1|1|114</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":500}]</t>
   </si>
   <si>
@@ -515,9 +473,6 @@
     <t>1|10,3|10,5|24</t>
   </si>
   <si>
-    <t>1|1|115</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":800}]</t>
   </si>
   <si>
@@ -527,9 +482,6 @@
     <t>1|10,3|10,5|25</t>
   </si>
   <si>
-    <t>1|1|116</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1100}]</t>
   </si>
   <si>
@@ -539,9 +491,6 @@
     <t>1|10,3|10,5|26</t>
   </si>
   <si>
-    <t>1|1|117</t>
-  </si>
-  <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1400}]</t>
   </si>
   <si>
@@ -549,9 +498,6 @@
   </si>
   <si>
     <t>1|10,3|10,5|27</t>
-  </si>
-  <si>
-    <t>1|1|118</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":1700}]</t>
@@ -1631,7 +1577,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1895,19 +1841,19 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="M7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1936,19 +1882,19 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1977,19 +1923,19 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="M9" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2018,19 +1964,19 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2059,19 +2005,19 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2100,19 +2046,19 @@
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2129,10 +2075,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2141,19 +2087,19 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2182,19 +2128,19 @@
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2223,19 +2169,19 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2264,19 +2210,19 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2305,19 +2251,19 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2346,19 +2292,19 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2375,10 +2321,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2387,19 +2333,19 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2428,19 +2374,19 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2469,19 +2415,19 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2510,19 +2456,19 @@
         <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2551,19 +2497,19 @@
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2592,19 +2538,19 @@
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2629,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2724,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2739,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>13</v>
@@ -2765,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -2776,13 +2722,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
@@ -2805,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2817,7 +2763,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>37</v>
@@ -2831,10 +2777,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2843,10 +2789,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2857,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2869,10 +2815,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2883,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2895,10 +2841,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2909,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2921,10 +2867,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2935,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2947,10 +2893,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2961,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2973,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2987,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2999,10 +2945,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3013,22 +2959,22 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3051,10 +2997,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3077,10 +3023,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3103,10 +3049,10 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3129,10 +3075,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3155,10 +3101,10 @@
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3181,10 +3127,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3207,10 +3153,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3233,10 +3179,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3259,10 +3205,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3285,10 +3231,10 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
